--- a/wandersphere_result_2024-12-05.xlsx
+++ b/wandersphere_result_2024-12-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalwavhal/Desktop/Projects/AAI-551/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280EA8B-CE22-D14A-9AF7-35FE32E066AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB21405-CF06-4947-95E7-71005C5FF926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Place Name</t>
   </si>
@@ -40,19 +40,61 @@
     <t>Wikipedia Information</t>
   </si>
   <si>
+    <t>Ellis Island Immigration Museum</t>
+  </si>
+  <si>
+    <t>17 Battery Pl, New York, NY 10004-1014 · &lt; 1 mi</t>
+  </si>
+  <si>
+    <t>Star Rating: 4.5 out of 5.</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=http%3a%2f%2fi0.wp.com%2fwww.habicurious.com%2fwp-content%2fuploads%2fNYCEllisIslandDec2014-8.jpg&amp;expw=1944&amp;exph=1296&amp;cbid=OLC.HFJjjm%2Bwk7oDQw480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.HFJjjm%20wk7oDQw480x360&amp;ypid=YN873x5238532221582190845&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.HFJjjm%20wk7oDQw480x360&amp;q=Ellis%20Island%20Immigration%20Museum%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
+  </si>
+  <si>
+    <t>City Hall Park is a public park surrounding New York City Hall in the Civic Center of Manhattan. It was the town commons of the nascent city of New York.[1]</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw Apartment</t>
+  </si>
+  <si>
+    <t>66 Perry St, New York, NY 10014 · 3.0 mi</t>
+  </si>
+  <si>
+    <t>Star Rating: 3.5 out of 5.</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/maps?cp=40.735433%7E-74.0038&amp;lvl=12.5#</t>
+  </si>
+  <si>
+    <t>Dog Owners of Tribeca was an organization which captured the Tribeca Dog Run from 2008-2018 with the false claim that it operated and controlled access to the park.[2][3] The organization called the park "Warren Street Dog Park" and restricted access to the park to individuals who paid a membership fee, which was $120/year in 2018.[4][5] In April 2018 a review of the land and nearby property prompted the city government to review the relationship of the Dog Owners of Tribeca with the park.[1] When it seemed like the city government would claim the park, board members of the Dog Owners of Tribeca complained.[6] In 2018 the New York City Department of Parks and Recreation restored public access to the park after people realized that the organization misrepresented itself as having a right to restrict public access.[2][3] To protect the park the parks department cut the locks with a blowtorch and installed an official public park placard.[7]</t>
+  </si>
+  <si>
+    <t>Bryant Park</t>
+  </si>
+  <si>
+    <t>Between 40th And 42nd Streets &amp; Fifth And Sixth Ave, New York, NY 10018 · 39 mi</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=https%3a%2f%2fcdn.abcotvs.com%2fdip%2fimages%2f7081001_101620-wabc-shutterstock-bryant-park-winter-village-img.jpg%3fw%3d1600&amp;expw=1600&amp;exph=900&amp;cbid=OLC.kDKI%2BvHc00ZtGA480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.kDKI%20vHc00ZtGA480x360&amp;ypid=YN873x118492541&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.kDKI%20vHc00ZtGA480x360&amp;q=Bryant%20Park%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
+  </si>
+  <si>
+    <t>Top of the Rock</t>
+  </si>
+  <si>
+    <t>Bryant Park is a 9.6-acre (3.9 ha), privately managed public park in the New York City borough of Manhattan. It is located between Fifth Avenue and Avenue of the Americas (Sixth Avenue) and between 40th and 42nd Streets in Midtown Manhattan. The eastern half of Bryant Park is occupied by the Main Branch of the New York Public Library. The western half contains a lawn, shaded walkways, and amenities such as a carousel, and is located entirely over an underground structure that houses the library's stacks. The park hosts several events, including a seasonal "Winter Village" with an ice rink and shops during the winter.</t>
+  </si>
+  <si>
     <t>Central Park</t>
   </si>
   <si>
-    <t>Manhattan Borough from Central Park West to 5th Ave, New York City, NY 10022 · 2.3 mi</t>
-  </si>
-  <si>
-    <t>Star Rating: 4.5 out of 5.</t>
+    <t>Manhattan Borough from Central Park West to 5th Ave, New York City, NY 10022 · 1.8 mi</t>
   </si>
   <si>
     <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=http%3a%2f%2fthewowstyle.com%2fwp-content%2fuploads%2f2014%2f11%2fCentral-Park-New-York-City-USA..png&amp;expw=928&amp;exph=492&amp;cbid=OLC.99wWcZIEalPVBQ480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.99wWcZIEalPVBQ480x360&amp;ypid=YN873x121388550&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.99wWcZIEalPVBQ480x360&amp;q=Central%20Park%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
   </si>
   <si>
-    <t>Bryant Park is a 9.6-acre (3.9 ha), privately managed public park in the New York City borough of Manhattan. It is located between Fifth Avenue and Avenue of the Americas (Sixth Avenue) and between 40th and 42nd Streets in Midtown Manhattan. The eastern half of Bryant Park is occupied by the Main Branch of the New York Public Library. The western half contains a lawn, shaded walkways, and amenities such as a carousel, and is located entirely over an underground structure that houses the library's stacks. The park hosts several events, including a seasonal "Winter Village" with an ice rink and shops during the winter.</t>
+    <t>30 Rockefeller Plaza (officially the Comcast Building; formerly RCA Building and GE Building) is a skyscraper that forms the centerpiece of Rockefeller Center in the Midtown Manhattan neighborhood of New York City, United States. Completed in 1933, the 66-story, 850 ft (260 m) building was designed in the Art Deco style by Raymond Hood, Rockefeller Center's lead architect. 30 Rockefeller Plaza was known for its main tenant, the Radio Corporation of America (RCA), from its opening in 1933 until 1988 and then for General Electric until 2015, when it was renamed for its current owner, Comcast. The building also houses the headquarters and New York studios of television network NBC; the headquarters is sometimes called 30 Rock, a nickname that inspired the NBC sitcom of the same name. The tallest structure in Rockefeller Center, the building is the 28th tallest in New York City and the 65th tallest in the United States, and was the third tallest building in the world when it opened.</t>
   </si>
 </sst>
 </file>
@@ -109,13 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,24 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="56.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" style="2"/>
-    <col min="6" max="6" width="56.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="56.33203125" style="2"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,21 +493,86 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="160" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/wandersphere_result_2024-12-05.xlsx
+++ b/wandersphere_result_2024-12-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalwavhal/Desktop/Projects/AAI-551/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB21405-CF06-4947-95E7-71005C5FF926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD27F9-3309-0444-A9DC-B72AB7F38CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Place Name</t>
   </si>
@@ -40,61 +40,58 @@
     <t>Wikipedia Information</t>
   </si>
   <si>
-    <t>Ellis Island Immigration Museum</t>
-  </si>
-  <si>
-    <t>17 Battery Pl, New York, NY 10004-1014 · &lt; 1 mi</t>
+    <t>Hudson River Park</t>
+  </si>
+  <si>
+    <t>The Hudson River Park now has a beach, and it’s the cutest little beach you will ever see. It’s clean and spacious. Of course, swimming is not allowed, but the river is there, and the view is magnifi…, A somewhat new addition to Manhattan, and very welcome as this very long linear park provides much loved recreation space in the middle of town. It runs along the Hudson River and links up many impo…, This place is a gem! Enjoyed by locals and tourists alike, it's 4 miles (that further connect to more park areas) of sunbathing, tennis, pickleball, restaurants, biking, and more. A fantastic way to …</t>
+  </si>
+  <si>
+    <t>61 Chelsea Piers, New York City, NY 10011 · 2.4 mi</t>
   </si>
   <si>
     <t>Star Rating: 4.5 out of 5.</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=http%3a%2f%2fi0.wp.com%2fwww.habicurious.com%2fwp-content%2fuploads%2fNYCEllisIslandDec2014-8.jpg&amp;expw=1944&amp;exph=1296&amp;cbid=OLC.HFJjjm%2Bwk7oDQw480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.HFJjjm%20wk7oDQw480x360&amp;ypid=YN873x5238532221582190845&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.HFJjjm%20wk7oDQw480x360&amp;q=Ellis%20Island%20Immigration%20Museum%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
-  </si>
-  <si>
-    <t>City Hall Park is a public park surrounding New York City Hall in the Civic Center of Manhattan. It was the town commons of the nascent city of New York.[1]</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw Apartment</t>
-  </si>
-  <si>
-    <t>66 Perry St, New York, NY 10014 · 3.0 mi</t>
-  </si>
-  <si>
-    <t>Star Rating: 3.5 out of 5.</t>
-  </si>
-  <si>
-    <t>https://www.bing.com/maps?cp=40.735433%7E-74.0038&amp;lvl=12.5#</t>
-  </si>
-  <si>
-    <t>Dog Owners of Tribeca was an organization which captured the Tribeca Dog Run from 2008-2018 with the false claim that it operated and controlled access to the park.[2][3] The organization called the park "Warren Street Dog Park" and restricted access to the park to individuals who paid a membership fee, which was $120/year in 2018.[4][5] In April 2018 a review of the land and nearby property prompted the city government to review the relationship of the Dog Owners of Tribeca with the park.[1] When it seemed like the city government would claim the park, board members of the Dog Owners of Tribeca complained.[6] In 2018 the New York City Department of Parks and Recreation restored public access to the park after people realized that the organization misrepresented itself as having a right to restrict public access.[2][3] To protect the park the parks department cut the locks with a blowtorch and installed an official public park placard.[7]</t>
+    <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=http%3a%2f%2fupload.wikimedia.org%2fwikipedia%2fcommons%2f2%2f25%2fHudson_River_Park_West_Village_jeh.jpg&amp;expw=3072&amp;exph=2304&amp;cbid=OLC.O27GIVlX%2FPNWSA480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.O27GIVlX%2FPNWSA480x360&amp;ypid=YN873x14743541820293035810&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.O27GIVlX%2FPNWSA480x360&amp;q=Hudson%20River%20Park%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
+  </si>
+  <si>
+    <t>Top of the Rock</t>
+  </si>
+  <si>
+    <t>We did the Rockefeller Center architecture tour. The key to this tour is to have a great guide, and Jonathan was that guide. It was a wonderful, informative, and educational tour. Jonathan really kne…, We had the pleasure of a VIP experience led by Karmilla! The NYC skyline at night was absolutely beautiful, and the panoramic views from the Sky Lift were truly unbeatable, We visited The Top of The Rock about an hour before sunset and then took in the views whilst the sun went down. It was pretty busy and difficult to get some space but everyone was polite in taking t…</t>
+  </si>
+  <si>
+    <t>Hudson River Park is a waterfront park on the North River (Hudson River) that extends from 59th Street south to Battery Park in the New York City borough of Manhattan. The park, a component of the Manhattan Waterfront Greenway, stretches 4.5 miles (7.2 km) and comprises 550 acres (220 ha),[2] making it the second-largest park in Manhattan after the 843-acre (341 ha) Central Park.</t>
   </si>
   <si>
     <t>Bryant Park</t>
   </si>
   <si>
-    <t>Between 40th And 42nd Streets &amp; Fifth And Sixth Ave, New York, NY 10018 · 39 mi</t>
+    <t>Between 40th And 42nd Streets &amp; Fifth And Sixth Ave, New York, NY 10018 · 2.2 mi</t>
   </si>
   <si>
     <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=https%3a%2f%2fcdn.abcotvs.com%2fdip%2fimages%2f7081001_101620-wabc-shutterstock-bryant-park-winter-village-img.jpg%3fw%3d1600&amp;expw=1600&amp;exph=900&amp;cbid=OLC.kDKI%2BvHc00ZtGA480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.kDKI%20vHc00ZtGA480x360&amp;ypid=YN873x118492541&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.kDKI%20vHc00ZtGA480x360&amp;q=Bryant%20Park%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
   </si>
   <si>
-    <t>Top of the Rock</t>
-  </si>
-  <si>
     <t>Bryant Park is a 9.6-acre (3.9 ha), privately managed public park in the New York City borough of Manhattan. It is located between Fifth Avenue and Avenue of the Americas (Sixth Avenue) and between 40th and 42nd Streets in Midtown Manhattan. The eastern half of Bryant Park is occupied by the Main Branch of the New York Public Library. The western half contains a lawn, shaded walkways, and amenities such as a carousel, and is located entirely over an underground structure that houses the library's stacks. The park hosts several events, including a seasonal "Winter Village" with an ice rink and shops during the winter.</t>
   </si>
   <si>
-    <t>Central Park</t>
-  </si>
-  <si>
-    <t>Manhattan Borough from Central Park West to 5th Ave, New York City, NY 10022 · 1.8 mi</t>
-  </si>
-  <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=http%3a%2f%2fthewowstyle.com%2fwp-content%2fuploads%2f2014%2f11%2fCentral-Park-New-York-City-USA..png&amp;expw=928&amp;exph=492&amp;cbid=OLC.99wWcZIEalPVBQ480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.99wWcZIEalPVBQ480x360&amp;ypid=YN873x121388550&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.99wWcZIEalPVBQ480x360&amp;q=Central%20Park%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
-  </si>
-  <si>
-    <t>30 Rockefeller Plaza (officially the Comcast Building; formerly RCA Building and GE Building) is a skyscraper that forms the centerpiece of Rockefeller Center in the Midtown Manhattan neighborhood of New York City, United States. Completed in 1933, the 66-story, 850 ft (260 m) building was designed in the Art Deco style by Raymond Hood, Rockefeller Center's lead architect. 30 Rockefeller Plaza was known for its main tenant, the Radio Corporation of America (RCA), from its opening in 1933 until 1988 and then for General Electric until 2015, when it was renamed for its current owner, Comcast. The building also houses the headquarters and New York studios of television network NBC; the headquarters is sometimes called 30 Rock, a nickname that inspired the NBC sitcom of the same name. The tallest structure in Rockefeller Center, the building is the 28th tallest in New York City and the 65th tallest in the United States, and was the third tallest building in the world when it opened.</t>
+    <t>61 Chelsea Piers, New York City, NY 10011 · 1.2 mi</t>
+  </si>
+  <si>
+    <t>Washington Square Park</t>
+  </si>
+  <si>
+    <t>I’d recommend visiting the park and Arch at night as you get to see the Arch lights; and the background. During the day the park is home to a wide range of people; and it didn’t feel safe for me., It was a beautiful Saturday sunny afternoon when we sauntered through this park. Yes, it was crowded (but not as crowded as it can be.) And there was a lot going on that I found entertaining. For exa…, Visited Washington Square Park with my partner, and it was a fantastic experience! The park has a lively atmosphere with street performers, musicians, and people relaxing by the fountain. It’s the pe…</t>
+  </si>
+  <si>
+    <t>5 Avenue, Waverly Place, W 4 Street &amp; MacDougal Street, New York, NY 10011 · 1.4 mi</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/images/search?view=detailV2&amp;mediaurl=https%3a%2f%2fatlas-assets.roadtrippers.com%2fuploads%2fplace_image%2fimage%2f1026102746%2f-strip_-quality_60_-interlace_Plane_-resize_1024x768_U__-gravity_center_-extent_1024x768%2fplace_image-image-59c9edab-f69f-4996-9387-a6e2cb8f41e5.jpg&amp;expw=1024&amp;exph=768&amp;cbid=OLC.U7rU8%2BgF4Nua3w480x360&amp;cbn=local&amp;idpp=local&amp;thid=OLC.U7rU8%20gF4Nua3w480x360&amp;ypid=YN873x6394786035695994769&amp;useBFPR=0&amp;eeptype=PhotoGroups&amp;dataGroup=local:datagroup.photos&amp;PhotoGroupName=AllPhotos&amp;PageTag=AllPhotos&amp;selectedIndex=0&amp;id=OLC.U7rU8%20gF4Nua3w480x360&amp;q=Washington%20Square%20Park%20top%20park%20tourist%20attractions%20country%20united%20states&amp;pseg=Attraction&amp;noidpclose=0&amp;FORM=LOCIMG</t>
+  </si>
+  <si>
+    <t>Really enjoyed the Christmas/winter village. Many unique vendors and artists. A lot of food options. I highly recommend spending time here., We stopped by the Bryant Park Winter Village in early November and had the chance to see the ice skating rink, Christmas tree, food stalls, and food vendors. Great place to spend an hour in the Midt…, Among our personal favorites is Bryant Park, one of the city’s oldest, largest, and most beloved green spaces. Every time, I am in this area (between 33rd &amp; Times Square), I always visit this place a…</t>
   </si>
 </sst>
 </file>
@@ -151,10 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,121 +458,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="105.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="82.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="7" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
